--- a/Area_1A_Purchase_Geographies_ADDS.xlsx
+++ b/Area_1A_Purchase_Geographies_ADDS.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CTP_Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73098FD0-EDC7-4E8B-969B-AEBE241A62FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80B6038-3CB1-4ECB-913A-225802D65EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E63E38A9-B0CD-4382-8F08-D795BE991369}"/>
+    <workbookView xWindow="48105" yWindow="3900" windowWidth="22995" windowHeight="15435" activeTab="1" xr2:uid="{E63E38A9-B0CD-4382-8F08-D795BE991369}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP Purchase Geographies" sheetId="3" r:id="rId1"/>
     <sheet name="Purchase CID Lookup" sheetId="4" r:id="rId2"/>
     <sheet name="FIPS Lookup" sheetId="5" r:id="rId3"/>
     <sheet name="SOURCE_CIT_STATEWIDE" sheetId="6" r:id="rId4"/>
+    <sheet name="HUC8_Extents" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Purchase CID Lookup'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HUC8_Extents!$A$1:$F$1</definedName>
     <definedName name="_xlnm.Database">SOURCE_CIT_STATEWIDE!$A$1:$P$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="528">
   <si>
     <t>Watershed</t>
   </si>
@@ -1032,9 +1033,6 @@
     <t>FIPS Code</t>
   </si>
   <si>
-    <t>HUC-8</t>
-  </si>
-  <si>
     <t>07060001</t>
   </si>
   <si>
@@ -1353,9 +1351,6 @@
     <t>AtkinsRealis 2024</t>
   </si>
   <si>
-    <t>MIP Purchase Name</t>
-  </si>
-  <si>
     <t>BLE AREA 1A, IA FY20/21 DISC-BLE</t>
   </si>
   <si>
@@ -1363,19 +1358,295 @@
   </si>
   <si>
     <t>The FIRM Database is compiled in conjunction with the hardcopy FIRM and the final FIS report. The specifics of the hydrologic and hydraulic analyses performed are detailed in the FIS report. The results of these studies are submitted in digital format to FEMA. These data and unrevised data from effective FIRMs are compiled onto the base map used for FIRM publication and checked for accuracy and compliance with FEMA standards.</t>
+  </si>
+  <si>
+    <t>(-96.04164356354897, 41.42687186929305, -94.99369375183596, 42.626686312021036)</t>
+  </si>
+  <si>
+    <t>10230007</t>
+  </si>
+  <si>
+    <t>(-96.09641553467196, 41.05205592265304, -95.36352081843995, 41.889845987836054)</t>
+  </si>
+  <si>
+    <t>10230006</t>
+  </si>
+  <si>
+    <t>(-95.98232609368699, 41.999221841132055, -95.20746741079097, 42.866761409279036)</t>
+  </si>
+  <si>
+    <t>10230005</t>
+  </si>
+  <si>
+    <t>(-96.36009741759898, 41.810594289097025, -95.70934926535597, 42.892662048819034)</t>
+  </si>
+  <si>
+    <t>10230004</t>
+  </si>
+  <si>
+    <t>(-96.07254466258598, 41.776803554244054, -94.83596020174895, 43.50119596862805)</t>
+  </si>
+  <si>
+    <t>10230003</t>
+  </si>
+  <si>
+    <t>(-96.41039112556297, 42.482343474753065, -95.58769432749699, 43.320736792501066)</t>
+  </si>
+  <si>
+    <t>10230002</t>
+  </si>
+  <si>
+    <t>(-96.46189582102897, 41.54495398313702, -95.32385668214295, 42.78597972756404)</t>
+  </si>
+  <si>
+    <t>10230001</t>
+  </si>
+  <si>
+    <t>(-96.46134785105198, 43.07427319455002, -95.60917833649296, 43.50041491530703)</t>
+  </si>
+  <si>
+    <t>10170204</t>
+  </si>
+  <si>
+    <t>(-96.63970404764899, 42.48924184526106, -96.15425606295997, 43.50051390102203)</t>
+  </si>
+  <si>
+    <t>10170203</t>
+  </si>
+  <si>
+    <t>(-92.74634038149497, 40.378263895958014, -91.419375239305, 40.82037481402705)</t>
+  </si>
+  <si>
+    <t>(-93.31078755796699, 40.37550088715102, -91.414102475709, 41.43675886133201)</t>
+  </si>
+  <si>
+    <t>(-94.69600896844798, 40.91009098373104, -92.96828092223399, 41.904194807670024)</t>
+  </si>
+  <si>
+    <t>(-95.064897351649, 41.467422768184065, -93.96566621600795, 42.212376932751056)</t>
+  </si>
+  <si>
+    <t>(-95.31431371215496, 41.48317232926803, -93.61238246386296, 42.936631876953015)</t>
+  </si>
+  <si>
+    <t>(-91.687889492779, 41.28344194178902, -90.69951675497299, 42.21207287851706)</t>
+  </si>
+  <si>
+    <t>(-93.22827194535, 42.601501731408064, -92.28304577335399, 43.50008396684103)</t>
+  </si>
+  <si>
+    <t>(-93.95966992286498, 41.15136100665802, -92.025471122277, 42.51914935183805)</t>
+  </si>
+  <si>
+    <t>(-91.38802478247499, 41.58721864225606, -90.30481962085798, 42.143621081581045)</t>
+  </si>
+  <si>
+    <t>(-92.68862648021599, 42.06903291737706, -91.248857590743, 43.500220679187066)</t>
+  </si>
+  <si>
+    <t>(-91.20511673711195, 41.14186173979704, -90.15688976539695, 41.93515978050806)</t>
+  </si>
+  <si>
+    <t>(-91.78596416566995, 41.904815616192025, -90.30032604292796, 42.75119988262304)</t>
+  </si>
+  <si>
+    <t>(-90.85108405531196, 41.87425891273705, -90.14006107325395, 42.54709992950603)</t>
+  </si>
+  <si>
+    <t>(-92.50765407249497, 42.56585753573302, -91.01131466013396, 43.45788504917806)</t>
+  </si>
+  <si>
+    <t>(-91.31250129664699, 42.43953756921502, -90.64393683629697, 43.01647487526503)</t>
+  </si>
+  <si>
+    <t>(-92.58353129218, 43.166693355163034, -91.23331870114299, 43.50093412339703)</t>
+  </si>
+  <si>
+    <t>(-91.77645705465795, 42.98292282672105, -91.057910037667, 43.500993141295055)</t>
+  </si>
+  <si>
+    <t>northbc</t>
+  </si>
+  <si>
+    <t>eastbc</t>
+  </si>
+  <si>
+    <t>southbc</t>
+  </si>
+  <si>
+    <t>westbc</t>
+  </si>
+  <si>
+    <t>Bounds</t>
+  </si>
+  <si>
+    <t>HUC8</t>
+  </si>
+  <si>
+    <t>SUBINFO_ID</t>
+  </si>
+  <si>
+    <t>CASE_NO</t>
+  </si>
+  <si>
+    <t>CASE_DESC</t>
+  </si>
+  <si>
+    <t>SUBMIT_BY</t>
+  </si>
+  <si>
+    <t>COMP_DATE</t>
+  </si>
+  <si>
+    <t>TOPO_SRC</t>
+  </si>
+  <si>
+    <t>TO_Area</t>
+  </si>
+  <si>
+    <t>Apple-Plum</t>
+  </si>
+  <si>
+    <t>21-07-0002S</t>
+  </si>
+  <si>
+    <t>IA_Eastern_2019</t>
+  </si>
+  <si>
+    <t>FY20_1A</t>
+  </si>
+  <si>
+    <t>Big Papillion-Mosquito</t>
+  </si>
+  <si>
+    <t>23-07-0037S</t>
+  </si>
+  <si>
+    <t>BLE Area 3 MO-Little Sioux, Iowa FY22 DISC-BLE</t>
+  </si>
+  <si>
+    <t>IA_WesternIA_2020</t>
+  </si>
+  <si>
+    <t>FY22_3B</t>
+  </si>
+  <si>
+    <t>Blackbird-Soldier</t>
+  </si>
+  <si>
+    <t>IA_WesternIA_2020, IA_NorthCentral_2020</t>
+  </si>
+  <si>
+    <t>Bear-Wyaconda</t>
+  </si>
+  <si>
+    <t>22-07-0035S</t>
+  </si>
+  <si>
+    <t>BLE Area 2A, IA FY21 BLE</t>
+  </si>
+  <si>
+    <t>IA_SouthCentral_2020, IA_Eastern_2019</t>
+  </si>
+  <si>
+    <t>FY21_2A</t>
+  </si>
+  <si>
+    <t>Boyer</t>
+  </si>
+  <si>
+    <t>Copperas-Duck</t>
+  </si>
+  <si>
+    <t>Coon-Yellow</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t>Grant-Little Maquoketa</t>
+  </si>
+  <si>
+    <t>Lower Big Sioux</t>
+  </si>
+  <si>
+    <t>23-07-0036S</t>
+  </si>
+  <si>
+    <t>Lower Cedar</t>
+  </si>
+  <si>
+    <t>Lower Des Moines</t>
+  </si>
+  <si>
+    <t>Lake Red Rock</t>
+  </si>
+  <si>
+    <t>IA_NorthCentral_2020, IA_SouthCentral_2020</t>
+  </si>
+  <si>
+    <t>Little Sioux</t>
+  </si>
+  <si>
+    <t>Lower Wapsipinicon</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>Monona-Harrison Ditch</t>
+  </si>
+  <si>
+    <t>Maquoketa</t>
+  </si>
+  <si>
+    <t>North Raccoon</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>South Raccoon</t>
+  </si>
+  <si>
+    <t>IA_WesternIA_2020, IA_NorthCentral_2020, IA_SouthCentral_2020</t>
+  </si>
+  <si>
+    <t>South Skunk</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>IA_NorthCentral_2020, IA_Eastern_2019</t>
+  </si>
+  <si>
+    <t>Upper Cedar</t>
+  </si>
+  <si>
+    <t>Upper Iowa</t>
+  </si>
+  <si>
+    <t>Upper Wapsipinicon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1386,12 +1657,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1402,7 +1688,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6772,358 +7060,844 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F67F909-E013-44A7-907B-5690D7DA8BF9}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G8" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>10170203</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>10170204</v>
-      </c>
-      <c r="B3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>10230001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>10230002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>10230003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>10230004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>10230005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="J26" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45535</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>10230006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>10230007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" t="s">
-        <v>349</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B18" t="s">
-        <v>355</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B20" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B21" t="s">
-        <v>357</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B25" t="s">
-        <v>362</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B26" t="s">
-        <v>363</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B27" t="s">
-        <v>364</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>426</v>
+      <c r="J27" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{4F67F909-E013-44A7-907B-5690D7DA8BF9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -7952,8 +8726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06442E2-8405-48D5-88A2-203CA2EDF3E6}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7978,147 +8752,714 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M2" s="2">
         <v>45355</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M3" s="2">
         <v>45534</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832EB80-B9F6-4FC2-8952-0DA0A742E81B}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2">
+        <v>-91.776457054657953</v>
+      </c>
+      <c r="D2">
+        <v>42.982922826721051</v>
+      </c>
+      <c r="E2">
+        <v>-91.057910037667</v>
+      </c>
+      <c r="F2">
+        <v>43.500993141295062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3">
+        <v>-92.583531292179998</v>
+      </c>
+      <c r="D3">
+        <v>43.166693355163027</v>
+      </c>
+      <c r="E3">
+        <v>-91.233318701142991</v>
+      </c>
+      <c r="F3">
+        <v>43.50093412339703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4">
+        <v>-91.312501296646985</v>
+      </c>
+      <c r="D4">
+        <v>42.43953756921502</v>
+      </c>
+      <c r="E4">
+        <v>-90.643936836296973</v>
+      </c>
+      <c r="F4">
+        <v>43.016474875265033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5">
+        <v>-92.507654072494972</v>
+      </c>
+      <c r="D5">
+        <v>42.565857535733016</v>
+      </c>
+      <c r="E5">
+        <v>-91.011314660133962</v>
+      </c>
+      <c r="F5">
+        <v>43.45788504917806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6">
+        <v>-90.851084055311958</v>
+      </c>
+      <c r="D6">
+        <v>41.874258912737048</v>
+      </c>
+      <c r="E6">
+        <v>-90.140061073253946</v>
+      </c>
+      <c r="F6">
+        <v>42.547099929506032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7">
+        <v>-91.785964165669952</v>
+      </c>
+      <c r="D7">
+        <v>41.904815616192018</v>
+      </c>
+      <c r="E7">
+        <v>-90.300326042927963</v>
+      </c>
+      <c r="F7">
+        <v>42.751199882623041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8">
+        <v>-91.20511673711195</v>
+      </c>
+      <c r="D8">
+        <v>41.141861739797037</v>
+      </c>
+      <c r="E8">
+        <v>-90.156889765396954</v>
+      </c>
+      <c r="F8">
+        <v>41.935159780508059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9">
+        <v>-92.688626480215987</v>
+      </c>
+      <c r="D9">
+        <v>42.069032917377058</v>
+      </c>
+      <c r="E9">
+        <v>-91.248857590743</v>
+      </c>
+      <c r="F9">
+        <v>43.500220679187073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10">
+        <v>-91.388024782474986</v>
+      </c>
+      <c r="D10">
+        <v>41.587218642256062</v>
+      </c>
+      <c r="E10">
+        <v>-90.304819620857984</v>
+      </c>
+      <c r="F10">
+        <v>42.143621081581053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11">
+        <v>-93.959669922864975</v>
+      </c>
+      <c r="D11">
+        <v>41.151361006658021</v>
+      </c>
+      <c r="E11">
+        <v>-92.025471122276997</v>
+      </c>
+      <c r="F11">
+        <v>42.519149351838053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12">
+        <v>-93.228271945350002</v>
+      </c>
+      <c r="D12">
+        <v>42.601501731408057</v>
+      </c>
+      <c r="E12">
+        <v>-92.28304577335399</v>
+      </c>
+      <c r="F12">
+        <v>43.500083966841032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13">
+        <v>-91.687889492778993</v>
+      </c>
+      <c r="D13">
+        <v>41.283441941789022</v>
+      </c>
+      <c r="E13">
+        <v>-90.69951675497299</v>
+      </c>
+      <c r="F13">
+        <v>42.212072878517063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14">
+        <v>-95.314313712154956</v>
+      </c>
+      <c r="D14">
+        <v>41.483172329268029</v>
+      </c>
+      <c r="E14">
+        <v>-93.612382463862957</v>
+      </c>
+      <c r="F14">
+        <v>42.936631876953022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15">
+        <v>-95.064897351648995</v>
+      </c>
+      <c r="D15">
+        <v>41.467422768184058</v>
+      </c>
+      <c r="E15">
+        <v>-93.965666216007946</v>
+      </c>
+      <c r="F15">
+        <v>42.212376932751063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16">
+        <v>-94.696008968447984</v>
+      </c>
+      <c r="D16">
+        <v>40.910090983731038</v>
+      </c>
+      <c r="E16">
+        <v>-92.968280922233987</v>
+      </c>
+      <c r="F16">
+        <v>41.904194807670017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17">
+        <v>-93.310787557966989</v>
+      </c>
+      <c r="D17">
+        <v>40.37550088715102</v>
+      </c>
+      <c r="E17">
+        <v>-91.414102475709001</v>
+      </c>
+      <c r="F17">
+        <v>41.436758861332009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18">
+        <v>-92.746340381494974</v>
+      </c>
+      <c r="D18">
+        <v>40.378263895958007</v>
+      </c>
+      <c r="E18">
+        <v>-91.419375239304998</v>
+      </c>
+      <c r="F18">
+        <v>40.820374814027048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B19" t="s">
+        <v>454</v>
+      </c>
+      <c r="C19">
+        <v>-96.639704047648991</v>
+      </c>
+      <c r="D19">
+        <v>42.489241845261063</v>
+      </c>
+      <c r="E19">
+        <v>-96.154256062959973</v>
+      </c>
+      <c r="F19">
+        <v>43.500513901022032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20">
+        <v>-96.461347851051983</v>
+      </c>
+      <c r="D20">
+        <v>43.074273194550017</v>
+      </c>
+      <c r="E20">
+        <v>-95.60917833649296</v>
+      </c>
+      <c r="F20">
+        <v>43.500414915307033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>451</v>
+      </c>
+      <c r="B21" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21">
+        <v>-96.461895821028975</v>
+      </c>
+      <c r="D21">
+        <v>41.54495398313702</v>
+      </c>
+      <c r="E21">
+        <v>-95.323856682142946</v>
+      </c>
+      <c r="F21">
+        <v>42.78597972756404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C22">
+        <v>-96.410391125562967</v>
+      </c>
+      <c r="D22">
+        <v>42.482343474753073</v>
+      </c>
+      <c r="E22">
+        <v>-95.58769432749699</v>
+      </c>
+      <c r="F22">
+        <v>43.320736792501073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23">
+        <v>-96.072544662585983</v>
+      </c>
+      <c r="D23">
+        <v>41.776803554244047</v>
+      </c>
+      <c r="E23">
+        <v>-94.835960201748946</v>
+      </c>
+      <c r="F23">
+        <v>43.501195968628053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24">
+        <v>-96.360097417598979</v>
+      </c>
+      <c r="D24">
+        <v>41.810594289097033</v>
+      </c>
+      <c r="E24">
+        <v>-95.709349265355968</v>
+      </c>
+      <c r="F24">
+        <v>42.892662048819027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25">
+        <v>-95.982326093686993</v>
+      </c>
+      <c r="D25">
+        <v>41.999221841132062</v>
+      </c>
+      <c r="E25">
+        <v>-95.207467410790969</v>
+      </c>
+      <c r="F25">
+        <v>42.866761409279043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>441</v>
+      </c>
+      <c r="B26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C26">
+        <v>-96.096415534671962</v>
+      </c>
+      <c r="D26">
+        <v>41.052055922653039</v>
+      </c>
+      <c r="E26">
+        <v>-95.363520818439952</v>
+      </c>
+      <c r="F26">
+        <v>41.889845987836047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27">
+        <v>-96.041643563548973</v>
+      </c>
+      <c r="D27">
+        <v>41.426871869293052</v>
+      </c>
+      <c r="E27">
+        <v>-94.993693751835963</v>
+      </c>
+      <c r="F27">
+        <v>42.626686312021043</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Area_1A_Purchase_Geographies_ADDS.xlsx
+++ b/Area_1A_Purchase_Geographies_ADDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CTP_Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/PycharmProjects/FEMA_Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80B6038-3CB1-4ECB-913A-225802D65EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5986626-60AD-0647-BC69-E6D41B95CADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48105" yWindow="3900" windowWidth="22995" windowHeight="15435" activeTab="1" xr2:uid="{E63E38A9-B0CD-4382-8F08-D795BE991369}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="2" activeTab="5" xr2:uid="{E63E38A9-B0CD-4382-8F08-D795BE991369}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP Purchase Geographies" sheetId="3" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="FIPS Lookup" sheetId="5" r:id="rId3"/>
     <sheet name="SOURCE_CIT_STATEWIDE" sheetId="6" r:id="rId4"/>
     <sheet name="HUC8_Extents" sheetId="7" r:id="rId5"/>
+    <sheet name="State_FIPS_Refs" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HUC8_Extents!$A$1:$F$1</definedName>
     <definedName name="_xlnm.Database">SOURCE_CIT_STATEWIDE!$A$1:$P$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="636">
   <si>
     <t>Watershed</t>
   </si>
@@ -1628,13 +1628,337 @@
   </si>
   <si>
     <t>Upper Wapsipinicon</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postal</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,6 +1970,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1684,13 +2021,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,14 +2370,14 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7060005</v>
       </c>
@@ -2072,7 +2411,7 @@
         <v>190034</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7060005</v>
       </c>
@@ -2089,7 +2428,7 @@
         <v>190088</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7060005</v>
       </c>
@@ -2106,7 +2445,7 @@
         <v>190859</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7060005</v>
       </c>
@@ -2123,7 +2462,7 @@
         <v>190053</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7060005</v>
       </c>
@@ -2140,7 +2479,7 @@
         <v>190079</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7060005</v>
       </c>
@@ -2157,7 +2496,7 @@
         <v>190500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7060005</v>
       </c>
@@ -2174,7 +2513,7 @@
         <v>190534</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7060005</v>
       </c>
@@ -2191,7 +2530,7 @@
         <v>195180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7060005</v>
       </c>
@@ -2208,7 +2547,7 @@
         <v>190047</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7060005</v>
       </c>
@@ -2225,7 +2564,7 @@
         <v>190106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7060005</v>
       </c>
@@ -2242,7 +2581,7 @@
         <v>190158</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7060005</v>
       </c>
@@ -2259,7 +2598,7 @@
         <v>190162</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7060005</v>
       </c>
@@ -2276,7 +2615,7 @@
         <v>190779</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7060005</v>
       </c>
@@ -2293,7 +2632,7 @@
         <v>190879</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7060001</v>
       </c>
@@ -2310,7 +2649,7 @@
         <v>190005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7060001</v>
       </c>
@@ -2327,7 +2666,7 @@
         <v>190006</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7060001</v>
       </c>
@@ -2344,7 +2683,7 @@
         <v>190008</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7060001</v>
       </c>
@@ -2361,7 +2700,7 @@
         <v>190316</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7060001</v>
       </c>
@@ -2378,7 +2717,7 @@
         <v>190317</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7060001</v>
       </c>
@@ -2395,7 +2734,7 @@
         <v>190641</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7060001</v>
       </c>
@@ -2412,7 +2751,7 @@
         <v>190942</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7060001</v>
       </c>
@@ -2429,7 +2768,7 @@
         <v>190620</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7060001</v>
       </c>
@@ -2446,7 +2785,7 @@
         <v>190767</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7060001</v>
       </c>
@@ -2463,7 +2802,7 @@
         <v>190858</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7060001</v>
       </c>
@@ -2480,7 +2819,7 @@
         <v>195182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7060001</v>
       </c>
@@ -2497,7 +2836,7 @@
         <v>195183</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7060001</v>
       </c>
@@ -2514,7 +2853,7 @@
         <v>190639</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7060001</v>
       </c>
@@ -2531,7 +2870,7 @@
         <v>190713</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7060001</v>
       </c>
@@ -2548,7 +2887,7 @@
         <v>190918</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>7080101</v>
       </c>
@@ -2565,7 +2904,7 @@
         <v>190086</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7080101</v>
       </c>
@@ -2582,7 +2921,7 @@
         <v>190088</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7080101</v>
       </c>
@@ -2599,7 +2938,7 @@
         <v>190766</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7080101</v>
       </c>
@@ -2616,7 +2955,7 @@
         <v>190859</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7080101</v>
       </c>
@@ -2633,7 +2972,7 @@
         <v>190193</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7080101</v>
       </c>
@@ -2650,7 +2989,7 @@
         <v>190937</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7080101</v>
       </c>
@@ -2667,7 +3006,7 @@
         <v>190212</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7080101</v>
       </c>
@@ -2684,7 +3023,7 @@
         <v>190213</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7080101</v>
       </c>
@@ -2701,7 +3040,7 @@
         <v>190836</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7080101</v>
       </c>
@@ -2718,7 +3057,7 @@
         <v>190239</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7080101</v>
       </c>
@@ -2735,7 +3074,7 @@
         <v>190240</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7080101</v>
       </c>
@@ -2752,7 +3091,7 @@
         <v>190241</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7080101</v>
       </c>
@@ -2769,7 +3108,7 @@
         <v>190242</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7080101</v>
       </c>
@@ -2786,7 +3125,7 @@
         <v>190243</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7080101</v>
       </c>
@@ -2803,7 +3142,7 @@
         <v>190244</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7080101</v>
       </c>
@@ -2820,7 +3159,7 @@
         <v>190245</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7080101</v>
       </c>
@@ -2837,7 +3176,7 @@
         <v>190506</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7080101</v>
       </c>
@@ -2854,7 +3193,7 @@
         <v>190554</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7080101</v>
       </c>
@@ -2871,7 +3210,7 @@
         <v>190574</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7060003</v>
       </c>
@@ -2888,7 +3227,7 @@
         <v>190072</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7060003</v>
       </c>
@@ -2905,7 +3244,7 @@
         <v>190077</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7060003</v>
       </c>
@@ -2922,7 +3261,7 @@
         <v>190082</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7060003</v>
       </c>
@@ -2939,7 +3278,7 @@
         <v>190580</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7060003</v>
       </c>
@@ -2956,7 +3295,7 @@
         <v>190858</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7060003</v>
       </c>
@@ -2973,7 +3312,7 @@
         <v>190053</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7060003</v>
       </c>
@@ -2990,7 +3329,7 @@
         <v>190055</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7060003</v>
       </c>
@@ -3007,7 +3346,7 @@
         <v>190107</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7060003</v>
       </c>
@@ -3024,7 +3363,7 @@
         <v>190119</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7060003</v>
       </c>
@@ -3041,7 +3380,7 @@
         <v>190122</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7060003</v>
       </c>
@@ -3058,7 +3397,7 @@
         <v>190306</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7060003</v>
       </c>
@@ -3075,7 +3414,7 @@
         <v>190370</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7060003</v>
       </c>
@@ -3092,7 +3431,7 @@
         <v>190449</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7060003</v>
       </c>
@@ -3109,7 +3448,7 @@
         <v>190500</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7060003</v>
       </c>
@@ -3126,7 +3465,7 @@
         <v>190526</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7060003</v>
       </c>
@@ -3143,7 +3482,7 @@
         <v>190534</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>7060003</v>
       </c>
@@ -3160,7 +3499,7 @@
         <v>190576</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7060003</v>
       </c>
@@ -3177,7 +3516,7 @@
         <v>190578</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7060003</v>
       </c>
@@ -3194,7 +3533,7 @@
         <v>195180</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7080206</v>
       </c>
@@ -3211,7 +3550,7 @@
         <v>190050</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7080206</v>
       </c>
@@ -3228,7 +3567,7 @@
         <v>190051</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7080206</v>
       </c>
@@ -3245,7 +3584,7 @@
         <v>190056</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7080206</v>
       </c>
@@ -3262,7 +3601,7 @@
         <v>190057</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7080206</v>
       </c>
@@ -3279,7 +3618,7 @@
         <v>190058</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7080206</v>
       </c>
@@ -3296,7 +3635,7 @@
         <v>190922</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7080206</v>
       </c>
@@ -3313,7 +3652,7 @@
         <v>190970</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7080206</v>
       </c>
@@ -3330,7 +3669,7 @@
         <v>190610</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7080206</v>
       </c>
@@ -3347,7 +3686,7 @@
         <v>190882</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7080206</v>
       </c>
@@ -3364,7 +3703,7 @@
         <v>190775</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7080206</v>
       </c>
@@ -3381,7 +3720,7 @@
         <v>190919</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7080206</v>
       </c>
@@ -3398,7 +3737,7 @@
         <v>190187</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7080206</v>
       </c>
@@ -3415,7 +3754,7 @@
         <v>190191</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>7080206</v>
       </c>
@@ -3432,7 +3771,7 @@
         <v>190192</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7080206</v>
       </c>
@@ -3449,7 +3788,7 @@
         <v>190438</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>7080206</v>
       </c>
@@ -3466,7 +3805,7 @@
         <v>190441</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>7080206</v>
       </c>
@@ -3483,7 +3822,7 @@
         <v>190443</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>7080206</v>
       </c>
@@ -3500,7 +3839,7 @@
         <v>190444</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>7080206</v>
       </c>
@@ -3517,7 +3856,7 @@
         <v>190607</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>7080206</v>
       </c>
@@ -3534,7 +3873,7 @@
         <v>190692</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>7080206</v>
       </c>
@@ -3551,7 +3890,7 @@
         <v>190829</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>7080206</v>
       </c>
@@ -3568,7 +3907,7 @@
         <v>190193</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>7080206</v>
       </c>
@@ -3585,7 +3924,7 @@
         <v>190308</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>7080206</v>
       </c>
@@ -3602,7 +3941,7 @@
         <v>190211</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>7080206</v>
       </c>
@@ -3619,7 +3958,7 @@
         <v>190214</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>7080206</v>
       </c>
@@ -3636,7 +3975,7 @@
         <v>190215</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7080206</v>
       </c>
@@ -3653,7 +3992,7 @@
         <v>190469</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>7080206</v>
       </c>
@@ -3670,7 +4009,7 @@
         <v>190675</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>7080206</v>
       </c>
@@ -3687,7 +4026,7 @@
         <v>190686</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7080206</v>
       </c>
@@ -3704,7 +4043,7 @@
         <v>190721</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7080206</v>
       </c>
@@ -3721,7 +4060,7 @@
         <v>190836</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>7080206</v>
       </c>
@@ -3738,7 +4077,7 @@
         <v>190239</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>7080103</v>
       </c>
@@ -3755,7 +4094,7 @@
         <v>190045</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7080103</v>
       </c>
@@ -3772,7 +4111,7 @@
         <v>190050</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>7080103</v>
       </c>
@@ -3789,7 +4128,7 @@
         <v>190054</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7080103</v>
       </c>
@@ -3806,7 +4145,7 @@
         <v>190970</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>7080103</v>
       </c>
@@ -3823,7 +4162,7 @@
         <v>190088</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>7080103</v>
       </c>
@@ -3840,7 +4179,7 @@
         <v>190089</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>7080103</v>
       </c>
@@ -3857,7 +4196,7 @@
         <v>190090</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>7080103</v>
       </c>
@@ -3874,7 +4213,7 @@
         <v>190118</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>7080103</v>
       </c>
@@ -3891,7 +4230,7 @@
         <v>190568</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>7080103</v>
       </c>
@@ -3908,7 +4247,7 @@
         <v>190586</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>7080103</v>
       </c>
@@ -3925,7 +4264,7 @@
         <v>190611</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>7080103</v>
       </c>
@@ -3942,7 +4281,7 @@
         <v>190711</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>7080103</v>
       </c>
@@ -3959,7 +4298,7 @@
         <v>190734</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7080103</v>
       </c>
@@ -3976,7 +4315,7 @@
         <v>190859</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7080103</v>
       </c>
@@ -3993,7 +4332,7 @@
         <v>190174</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7080103</v>
       </c>
@@ -4010,7 +4349,7 @@
         <v>190176</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>7080103</v>
       </c>
@@ -4027,7 +4366,7 @@
         <v>190177</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>7080103</v>
       </c>
@@ -4044,7 +4383,7 @@
         <v>190770</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>7080103</v>
       </c>
@@ -4061,7 +4400,7 @@
         <v>190775</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7080103</v>
       </c>
@@ -4078,7 +4417,7 @@
         <v>190919</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>7080103</v>
       </c>
@@ -4095,7 +4434,7 @@
         <v>190829</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7080103</v>
       </c>
@@ -4112,7 +4451,7 @@
         <v>190675</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7080103</v>
       </c>
@@ -4129,7 +4468,7 @@
         <v>190239</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7080103</v>
       </c>
@@ -4146,7 +4485,7 @@
         <v>190242</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7080103</v>
       </c>
@@ -4163,7 +4502,7 @@
         <v>190282</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7080103</v>
       </c>
@@ -4180,7 +4519,7 @@
         <v>190378</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7080103</v>
       </c>
@@ -4197,7 +4536,7 @@
         <v>190505</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7080103</v>
       </c>
@@ -4214,7 +4553,7 @@
         <v>190574</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7080103</v>
       </c>
@@ -4231,7 +4570,7 @@
         <v>190726</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7080103</v>
       </c>
@@ -4248,7 +4587,7 @@
         <v>190764</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7080103</v>
       </c>
@@ -4265,7 +4604,7 @@
         <v>190771</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>7060006</v>
       </c>
@@ -4282,7 +4621,7 @@
         <v>190331</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>7060006</v>
       </c>
@@ -4299,7 +4638,7 @@
         <v>190698</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7060006</v>
       </c>
@@ -4316,7 +4655,7 @@
         <v>190848</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7060006</v>
       </c>
@@ -4333,7 +4672,7 @@
         <v>190573</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7060006</v>
       </c>
@@ -4350,7 +4689,7 @@
         <v>190662</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7060006</v>
       </c>
@@ -4367,7 +4706,7 @@
         <v>190858</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7060006</v>
       </c>
@@ -4384,7 +4723,7 @@
         <v>190087</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7060006</v>
       </c>
@@ -4401,7 +4740,7 @@
         <v>190567</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7060006</v>
       </c>
@@ -4418,7 +4757,7 @@
         <v>190734</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7060006</v>
       </c>
@@ -4435,7 +4774,7 @@
         <v>190859</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7060006</v>
       </c>
@@ -4452,7 +4791,7 @@
         <v>190112</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7060006</v>
       </c>
@@ -4469,7 +4808,7 @@
         <v>190120</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7060006</v>
       </c>
@@ -4486,7 +4825,7 @@
         <v>190363</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7060006</v>
       </c>
@@ -4503,7 +4842,7 @@
         <v>190364</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7060006</v>
       </c>
@@ -4520,7 +4859,7 @@
         <v>190365</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7060006</v>
       </c>
@@ -4537,7 +4876,7 @@
         <v>190566</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7060006</v>
       </c>
@@ -4554,7 +4893,7 @@
         <v>190571</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7060006</v>
       </c>
@@ -4571,7 +4910,7 @@
         <v>190594</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>7060006</v>
       </c>
@@ -4588,7 +4927,7 @@
         <v>190739</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>7060006</v>
       </c>
@@ -4605,7 +4944,7 @@
         <v>190801</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7060006</v>
       </c>
@@ -4622,7 +4961,7 @@
         <v>190863</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7060006</v>
       </c>
@@ -4639,7 +4978,7 @@
         <v>190028</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7060006</v>
       </c>
@@ -4656,7 +4995,7 @@
         <v>190040</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7060006</v>
       </c>
@@ -4673,7 +5012,7 @@
         <v>190055</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>7060006</v>
       </c>
@@ -4690,7 +5029,7 @@
         <v>190079</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>7060006</v>
       </c>
@@ -4707,7 +5046,7 @@
         <v>190107</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>7060006</v>
       </c>
@@ -4724,7 +5063,7 @@
         <v>190117</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>7060006</v>
       </c>
@@ -4741,7 +5080,7 @@
         <v>190121</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7060006</v>
       </c>
@@ -4758,7 +5097,7 @@
         <v>190123</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>7060006</v>
       </c>
@@ -4775,7 +5114,7 @@
         <v>190371</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>7060006</v>
       </c>
@@ -4792,7 +5131,7 @@
         <v>190534</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>7060006</v>
       </c>
@@ -4809,7 +5148,7 @@
         <v>190576</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>7060006</v>
       </c>
@@ -4826,7 +5165,7 @@
         <v>190578</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>7060006</v>
       </c>
@@ -4843,7 +5182,7 @@
         <v>190695</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>7060006</v>
       </c>
@@ -4860,7 +5199,7 @@
         <v>190866</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>7060006</v>
       </c>
@@ -4877,7 +5216,7 @@
         <v>190047</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>7060006</v>
       </c>
@@ -4894,7 +5233,7 @@
         <v>190160</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>7060006</v>
       </c>
@@ -4911,7 +5250,7 @@
         <v>190161</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>7060006</v>
       </c>
@@ -4928,7 +5267,7 @@
         <v>190181</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>7060006</v>
       </c>
@@ -4945,7 +5284,7 @@
         <v>190428</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>7060006</v>
       </c>
@@ -4962,7 +5301,7 @@
         <v>190430</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>7060006</v>
       </c>
@@ -4979,7 +5318,7 @@
         <v>190431</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7060006</v>
       </c>
@@ -4996,7 +5335,7 @@
         <v>190693</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7060006</v>
       </c>
@@ -5013,7 +5352,7 @@
         <v>190879</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>7060006</v>
       </c>
@@ -5030,7 +5369,7 @@
         <v>190175</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>7060006</v>
       </c>
@@ -5047,7 +5386,7 @@
         <v>190434</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>7060006</v>
       </c>
@@ -5064,7 +5403,7 @@
         <v>190791</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>7060006</v>
       </c>
@@ -5081,7 +5420,7 @@
         <v>190919</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>7060006</v>
       </c>
@@ -5098,7 +5437,7 @@
         <v>190829</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>7060004</v>
       </c>
@@ -5115,7 +5454,7 @@
         <v>190005</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>7060004</v>
       </c>
@@ -5132,7 +5471,7 @@
         <v>190641</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>7060004</v>
       </c>
@@ -5149,7 +5488,7 @@
         <v>190067</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7060004</v>
       </c>
@@ -5166,7 +5505,7 @@
         <v>190855</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>7060004</v>
       </c>
@@ -5183,7 +5522,7 @@
         <v>190073</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>7060004</v>
       </c>
@@ -5200,7 +5539,7 @@
         <v>190074</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>7060004</v>
       </c>
@@ -5217,7 +5556,7 @@
         <v>190075</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>7060004</v>
       </c>
@@ -5234,7 +5573,7 @@
         <v>190076</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7060004</v>
       </c>
@@ -5251,7 +5590,7 @@
         <v>190083</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>7060004</v>
       </c>
@@ -5268,7 +5607,7 @@
         <v>190084</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>7060004</v>
       </c>
@@ -5285,7 +5624,7 @@
         <v>190085</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>7060004</v>
       </c>
@@ -5302,7 +5641,7 @@
         <v>190573</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>7060004</v>
       </c>
@@ -5319,7 +5658,7 @@
         <v>190580</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7060004</v>
       </c>
@@ -5336,7 +5675,7 @@
         <v>190620</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>7060004</v>
       </c>
@@ -5353,7 +5692,7 @@
         <v>190662</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>7060004</v>
       </c>
@@ -5370,7 +5709,7 @@
         <v>190767</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>7060004</v>
       </c>
@@ -5387,7 +5726,7 @@
         <v>190858</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>7060004</v>
       </c>
@@ -5404,7 +5743,7 @@
         <v>190717</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>7060004</v>
       </c>
@@ -5421,7 +5760,7 @@
         <v>190739</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>7060004</v>
       </c>
@@ -5438,7 +5777,7 @@
         <v>190863</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>7060004</v>
       </c>
@@ -5455,7 +5794,7 @@
         <v>190534</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>7060004</v>
       </c>
@@ -5472,7 +5811,7 @@
         <v>190125</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>7060004</v>
       </c>
@@ -5489,7 +5828,7 @@
         <v>190374</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>7060004</v>
       </c>
@@ -5506,7 +5845,7 @@
         <v>190376</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>7060004</v>
       </c>
@@ -5523,7 +5862,7 @@
         <v>190377</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>7060004</v>
       </c>
@@ -5540,7 +5879,7 @@
         <v>190379</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>7060004</v>
       </c>
@@ -5557,7 +5896,7 @@
         <v>190380</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>7060004</v>
       </c>
@@ -5574,7 +5913,7 @@
         <v>190381</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>7060004</v>
       </c>
@@ -5591,7 +5930,7 @@
         <v>190591</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>7060004</v>
       </c>
@@ -5608,7 +5947,7 @@
         <v>190695</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>7060004</v>
       </c>
@@ -5625,7 +5964,7 @@
         <v>190702</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>7060004</v>
       </c>
@@ -5642,7 +5981,7 @@
         <v>190706</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>7060004</v>
       </c>
@@ -5659,7 +5998,7 @@
         <v>190866</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>7060004</v>
       </c>
@@ -5676,7 +6015,7 @@
         <v>190419</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>7060004</v>
       </c>
@@ -5693,7 +6032,7 @@
         <v>190563</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>7060004</v>
       </c>
@@ -5710,7 +6049,7 @@
         <v>190875</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>7060004</v>
       </c>
@@ -5727,7 +6066,7 @@
         <v>190284</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>7060004</v>
       </c>
@@ -5744,7 +6083,7 @@
         <v>190285</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>7060004</v>
       </c>
@@ -5761,7 +6100,7 @@
         <v>190533</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>7060004</v>
       </c>
@@ -5778,7 +6117,7 @@
         <v>190561</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>7060004</v>
       </c>
@@ -5795,7 +6134,7 @@
         <v>190639</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>7060004</v>
       </c>
@@ -5812,7 +6151,7 @@
         <v>190713</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>7060004</v>
       </c>
@@ -5829,7 +6168,7 @@
         <v>190918</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>7080201</v>
       </c>
@@ -5846,7 +6185,7 @@
         <v>190023</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>7080201</v>
       </c>
@@ -5863,7 +6202,7 @@
         <v>190535</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>7080201</v>
       </c>
@@ -5880,7 +6219,7 @@
         <v>190026</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>7080201</v>
       </c>
@@ -5897,7 +6236,7 @@
         <v>190030</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>7080201</v>
       </c>
@@ -5914,7 +6253,7 @@
         <v>190327</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>7080201</v>
       </c>
@@ -5931,7 +6270,7 @@
         <v>190847</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>7080201</v>
       </c>
@@ -5948,7 +6287,7 @@
         <v>190850</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>7080201</v>
       </c>
@@ -5965,7 +6304,7 @@
         <v>190068</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>7080201</v>
       </c>
@@ -5982,7 +6321,7 @@
         <v>190855</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>7080201</v>
       </c>
@@ -5999,7 +6338,7 @@
         <v>190957</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>7080201</v>
       </c>
@@ -6016,7 +6355,7 @@
         <v>190967</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>7080201</v>
       </c>
@@ -6033,7 +6372,7 @@
         <v>190127</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>7080201</v>
       </c>
@@ -6050,7 +6389,7 @@
         <v>190128</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>7080201</v>
       </c>
@@ -6067,7 +6406,7 @@
         <v>190154</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>7080201</v>
       </c>
@@ -6084,7 +6423,7 @@
         <v>190382</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>7080201</v>
       </c>
@@ -6101,7 +6440,7 @@
         <v>190459</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>7080201</v>
       </c>
@@ -6118,7 +6457,7 @@
         <v>190460</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>7080201</v>
       </c>
@@ -6135,7 +6474,7 @@
         <v>190461</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>7080201</v>
       </c>
@@ -6152,7 +6491,7 @@
         <v>190636</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>7080201</v>
       </c>
@@ -6169,7 +6508,7 @@
         <v>190892</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>7080201</v>
       </c>
@@ -6186,7 +6525,7 @@
         <v>190961</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>7080201</v>
       </c>
@@ -6203,7 +6542,7 @@
         <v>190974</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7080201</v>
       </c>
@@ -6220,7 +6559,7 @@
         <v>190302</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>7080201</v>
       </c>
@@ -6237,7 +6576,7 @@
         <v>190735</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>7080201</v>
       </c>
@@ -6254,7 +6593,7 @@
         <v>190916</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>7060002</v>
       </c>
@@ -6271,7 +6610,7 @@
         <v>190005</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7060002</v>
       </c>
@@ -6288,7 +6627,7 @@
         <v>190415</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7060002</v>
       </c>
@@ -6305,7 +6644,7 @@
         <v>190417</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7060002</v>
       </c>
@@ -6322,7 +6661,7 @@
         <v>190563</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7060002</v>
       </c>
@@ -6339,7 +6678,7 @@
         <v>190875</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7060002</v>
       </c>
@@ -6356,7 +6695,7 @@
         <v>190892</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7060002</v>
       </c>
@@ -6373,7 +6712,7 @@
         <v>190532</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>7060002</v>
       </c>
@@ -6390,7 +6729,7 @@
         <v>190561</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>7060002</v>
       </c>
@@ -6407,7 +6746,7 @@
         <v>190918</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>7080102</v>
       </c>
@@ -6424,7 +6763,7 @@
         <v>190018</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>7080102</v>
       </c>
@@ -6441,7 +6780,7 @@
         <v>190535</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>7080102</v>
       </c>
@@ -6458,7 +6797,7 @@
         <v>190027</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>7080102</v>
       </c>
@@ -6475,7 +6814,7 @@
         <v>190029</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>7080102</v>
       </c>
@@ -6492,7 +6831,7 @@
         <v>190645</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>7080102</v>
       </c>
@@ -6509,7 +6848,7 @@
         <v>190669</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>7080102</v>
       </c>
@@ -6526,7 +6865,7 @@
         <v>190847</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>7080102</v>
       </c>
@@ -6543,7 +6882,7 @@
         <v>190031</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>7080102</v>
       </c>
@@ -6560,7 +6899,7 @@
         <v>190329</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>7080102</v>
       </c>
@@ -6577,7 +6916,7 @@
         <v>190330</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>7080102</v>
       </c>
@@ -6594,7 +6933,7 @@
         <v>190332</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>7080102</v>
       </c>
@@ -6611,7 +6950,7 @@
         <v>190333</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>7080102</v>
       </c>
@@ -6628,7 +6967,7 @@
         <v>190690</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>7080102</v>
       </c>
@@ -6645,7 +6984,7 @@
         <v>190698</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>7080102</v>
       </c>
@@ -6662,7 +7001,7 @@
         <v>190798</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>7080102</v>
       </c>
@@ -6679,7 +7018,7 @@
         <v>190848</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>7080102</v>
       </c>
@@ -6696,7 +7035,7 @@
         <v>190065</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>7080102</v>
       </c>
@@ -6713,7 +7052,7 @@
         <v>190066</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>7080102</v>
       </c>
@@ -6730,7 +7069,7 @@
         <v>190069</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>7080102</v>
       </c>
@@ -6747,7 +7086,7 @@
         <v>190855</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>7080102</v>
       </c>
@@ -6764,7 +7103,7 @@
         <v>190967</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>7080102</v>
       </c>
@@ -6781,7 +7120,7 @@
         <v>190971</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>7080102</v>
       </c>
@@ -6798,7 +7137,7 @@
         <v>190863</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>7080102</v>
       </c>
@@ -6815,7 +7154,7 @@
         <v>190126</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>7080102</v>
       </c>
@@ -6832,7 +7171,7 @@
         <v>190823</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>7080102</v>
       </c>
@@ -6849,7 +7188,7 @@
         <v>190866</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>7080102</v>
       </c>
@@ -6866,7 +7205,7 @@
         <v>190127</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>7080102</v>
       </c>
@@ -6883,7 +7222,7 @@
         <v>190416</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>7080102</v>
       </c>
@@ -6900,7 +7239,7 @@
         <v>190418</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>7080102</v>
       </c>
@@ -6917,7 +7256,7 @@
         <v>190875</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>7080102</v>
       </c>
@@ -6934,7 +7273,7 @@
         <v>190174</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>7080102</v>
       </c>
@@ -6951,7 +7290,7 @@
         <v>190919</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>7080102</v>
       </c>
@@ -6968,7 +7307,7 @@
         <v>190130</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>7080102</v>
       </c>
@@ -6985,7 +7324,7 @@
         <v>190188</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>7080102</v>
       </c>
@@ -7002,7 +7341,7 @@
         <v>190189</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>7080102</v>
       </c>
@@ -7019,7 +7358,7 @@
         <v>190829</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>7080102</v>
       </c>
@@ -7036,7 +7375,7 @@
         <v>190458</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>7080102</v>
       </c>
@@ -7062,23 +7401,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F67F909-E013-44A7-907B-5690D7DA8BF9}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>346</v>
       </c>
@@ -7110,7 +7449,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
@@ -7142,7 +7481,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>371</v>
       </c>
@@ -7171,7 +7510,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>366</v>
       </c>
@@ -7200,7 +7539,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>363</v>
       </c>
@@ -7229,7 +7568,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>372</v>
       </c>
@@ -7258,7 +7597,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>353</v>
       </c>
@@ -7290,7 +7629,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>347</v>
       </c>
@@ -7322,7 +7661,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>367</v>
       </c>
@@ -7351,7 +7690,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>349</v>
       </c>
@@ -7383,7 +7722,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>364</v>
       </c>
@@ -7412,7 +7751,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>357</v>
       </c>
@@ -7444,7 +7783,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>362</v>
       </c>
@@ -7473,7 +7812,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>361</v>
       </c>
@@ -7502,7 +7841,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>368</v>
       </c>
@@ -7531,7 +7870,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>355</v>
       </c>
@@ -7563,7 +7902,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>370</v>
       </c>
@@ -7592,7 +7931,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>369</v>
       </c>
@@ -7621,7 +7960,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>352</v>
       </c>
@@ -7653,7 +7992,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>359</v>
       </c>
@@ -7682,7 +8021,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>365</v>
       </c>
@@ -7711,7 +8050,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>360</v>
       </c>
@@ -7740,7 +8079,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>358</v>
       </c>
@@ -7769,7 +8108,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>350</v>
       </c>
@@ -7801,7 +8140,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>356</v>
       </c>
@@ -7833,7 +8172,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>348</v>
       </c>
@@ -7865,7 +8204,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>354</v>
       </c>
@@ -7911,13 +8250,13 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -7925,7 +8264,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -7933,7 +8272,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -7941,7 +8280,7 @@
         <v>19003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7949,7 +8288,7 @@
         <v>19005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -7957,7 +8296,7 @@
         <v>19007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -7965,7 +8304,7 @@
         <v>19009</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -7973,7 +8312,7 @@
         <v>19011</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -7981,7 +8320,7 @@
         <v>19013</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -7989,7 +8328,7 @@
         <v>19015</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -7997,7 +8336,7 @@
         <v>19017</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -8005,7 +8344,7 @@
         <v>19019</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -8013,7 +8352,7 @@
         <v>19021</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -8021,7 +8360,7 @@
         <v>19023</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -8029,7 +8368,7 @@
         <v>19025</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -8037,7 +8376,7 @@
         <v>19027</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>261</v>
       </c>
@@ -8045,7 +8384,7 @@
         <v>19029</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -8053,7 +8392,7 @@
         <v>19031</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>262</v>
       </c>
@@ -8061,7 +8400,7 @@
         <v>19033</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>263</v>
       </c>
@@ -8069,7 +8408,7 @@
         <v>19035</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -8077,7 +8416,7 @@
         <v>19037</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>264</v>
       </c>
@@ -8085,7 +8424,7 @@
         <v>19039</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -8093,7 +8432,7 @@
         <v>19041</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -8101,7 +8440,7 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8109,7 +8448,7 @@
         <v>19045</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>266</v>
       </c>
@@ -8117,7 +8456,7 @@
         <v>19047</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>267</v>
       </c>
@@ -8125,7 +8464,7 @@
         <v>19049</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -8133,7 +8472,7 @@
         <v>19051</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>269</v>
       </c>
@@ -8141,7 +8480,7 @@
         <v>19053</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -8149,7 +8488,7 @@
         <v>19055</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>270</v>
       </c>
@@ -8157,7 +8496,7 @@
         <v>19057</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -8165,7 +8504,7 @@
         <v>19059</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -8173,7 +8512,7 @@
         <v>19061</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>272</v>
       </c>
@@ -8181,7 +8520,7 @@
         <v>19063</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -8189,7 +8528,7 @@
         <v>19065</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -8197,7 +8536,7 @@
         <v>19067</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>325</v>
       </c>
@@ -8205,7 +8544,7 @@
         <v>19069</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>326</v>
       </c>
@@ -8213,7 +8552,7 @@
         <v>19071</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>273</v>
       </c>
@@ -8221,7 +8560,7 @@
         <v>19073</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>274</v>
       </c>
@@ -8229,7 +8568,7 @@
         <v>19075</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -8237,7 +8576,7 @@
         <v>19077</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>276</v>
       </c>
@@ -8245,7 +8584,7 @@
         <v>19079</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>277</v>
       </c>
@@ -8253,7 +8592,7 @@
         <v>19081</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>278</v>
       </c>
@@ -8261,7 +8600,7 @@
         <v>19083</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>279</v>
       </c>
@@ -8269,7 +8608,7 @@
         <v>19085</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -8277,7 +8616,7 @@
         <v>19087</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -8285,7 +8624,7 @@
         <v>19089</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -8293,7 +8632,7 @@
         <v>19091</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -8301,7 +8640,7 @@
         <v>19093</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>283</v>
       </c>
@@ -8309,7 +8648,7 @@
         <v>19095</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -8317,7 +8656,7 @@
         <v>19097</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>284</v>
       </c>
@@ -8325,7 +8664,7 @@
         <v>19099</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -8333,7 +8672,7 @@
         <v>19101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -8341,7 +8680,7 @@
         <v>19103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -8349,7 +8688,7 @@
         <v>19105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>286</v>
       </c>
@@ -8357,7 +8696,7 @@
         <v>19107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>287</v>
       </c>
@@ -8365,7 +8704,7 @@
         <v>19109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>288</v>
       </c>
@@ -8373,7 +8712,7 @@
         <v>19111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -8381,7 +8720,7 @@
         <v>19113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -8389,7 +8728,7 @@
         <v>19115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>289</v>
       </c>
@@ -8397,7 +8736,7 @@
         <v>19117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>290</v>
       </c>
@@ -8405,7 +8744,7 @@
         <v>19119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>291</v>
       </c>
@@ -8413,7 +8752,7 @@
         <v>19121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>292</v>
       </c>
@@ -8421,7 +8760,7 @@
         <v>19123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>293</v>
       </c>
@@ -8429,7 +8768,7 @@
         <v>19125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>294</v>
       </c>
@@ -8437,7 +8776,7 @@
         <v>19127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>295</v>
       </c>
@@ -8445,7 +8784,7 @@
         <v>19129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>213</v>
       </c>
@@ -8453,7 +8792,7 @@
         <v>19131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>296</v>
       </c>
@@ -8461,7 +8800,7 @@
         <v>19133</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>297</v>
       </c>
@@ -8469,7 +8808,7 @@
         <v>19135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>298</v>
       </c>
@@ -8477,7 +8816,7 @@
         <v>19137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>45</v>
       </c>
@@ -8485,7 +8824,7 @@
         <v>19139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>299</v>
       </c>
@@ -8493,7 +8832,7 @@
         <v>19141</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -8501,7 +8840,7 @@
         <v>19143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>301</v>
       </c>
@@ -8509,7 +8848,7 @@
         <v>19145</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>302</v>
       </c>
@@ -8517,7 +8856,7 @@
         <v>19147</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>303</v>
       </c>
@@ -8525,7 +8864,7 @@
         <v>19149</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>304</v>
       </c>
@@ -8533,7 +8872,7 @@
         <v>19151</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>305</v>
       </c>
@@ -8541,7 +8880,7 @@
         <v>19153</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -8549,7 +8888,7 @@
         <v>19155</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>307</v>
       </c>
@@ -8557,7 +8896,7 @@
         <v>19157</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>308</v>
       </c>
@@ -8565,7 +8904,7 @@
         <v>19159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>309</v>
       </c>
@@ -8573,7 +8912,7 @@
         <v>19161</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -8581,7 +8920,7 @@
         <v>19163</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>310</v>
       </c>
@@ -8589,7 +8928,7 @@
         <v>19165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>311</v>
       </c>
@@ -8597,7 +8936,7 @@
         <v>19167</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>312</v>
       </c>
@@ -8605,7 +8944,7 @@
         <v>19169</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>313</v>
       </c>
@@ -8613,7 +8952,7 @@
         <v>19171</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>314</v>
       </c>
@@ -8621,7 +8960,7 @@
         <v>19173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>315</v>
       </c>
@@ -8629,7 +8968,7 @@
         <v>19175</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>316</v>
       </c>
@@ -8637,7 +8976,7 @@
         <v>19177</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>317</v>
       </c>
@@ -8645,7 +8984,7 @@
         <v>19179</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>318</v>
       </c>
@@ -8653,7 +8992,7 @@
         <v>19181</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>319</v>
       </c>
@@ -8661,7 +9000,7 @@
         <v>19183</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>320</v>
       </c>
@@ -8669,7 +9008,7 @@
         <v>19185</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>321</v>
       </c>
@@ -8677,7 +9016,7 @@
         <v>19187</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -8685,7 +9024,7 @@
         <v>19189</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -8693,7 +9032,7 @@
         <v>19191</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>323</v>
       </c>
@@ -8701,7 +9040,7 @@
         <v>19193</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>221</v>
       </c>
@@ -8709,7 +9048,7 @@
         <v>19195</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>324</v>
       </c>
@@ -8730,27 +9069,26 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>346</v>
       </c>
@@ -8800,7 +9138,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
@@ -8847,7 +9185,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>384</v>
       </c>
@@ -8905,16 +9243,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>478</v>
       </c>
@@ -8934,7 +9272,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -8954,7 +9292,7 @@
         <v>43.500993141295062</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -8974,7 +9312,7 @@
         <v>43.50093412339703</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -8994,7 +9332,7 @@
         <v>43.016474875265033</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -9014,7 +9352,7 @@
         <v>43.45788504917806</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>333</v>
       </c>
@@ -9034,7 +9372,7 @@
         <v>42.547099929506032</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>334</v>
       </c>
@@ -9054,7 +9392,7 @@
         <v>42.751199882623041</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>335</v>
       </c>
@@ -9074,7 +9412,7 @@
         <v>41.935159780508059</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>336</v>
       </c>
@@ -9094,7 +9432,7 @@
         <v>43.500220679187073</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -9114,7 +9452,7 @@
         <v>42.143621081581053</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>340</v>
       </c>
@@ -9134,7 +9472,7 @@
         <v>42.519149351838053</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>338</v>
       </c>
@@ -9154,7 +9492,7 @@
         <v>43.500083966841032</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>339</v>
       </c>
@@ -9174,7 +9512,7 @@
         <v>42.212072878517063</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -9194,7 +9532,7 @@
         <v>42.936631876953022</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>342</v>
       </c>
@@ -9214,7 +9552,7 @@
         <v>42.212376932751063</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -9234,7 +9572,7 @@
         <v>41.904194807670017</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>344</v>
       </c>
@@ -9254,7 +9592,7 @@
         <v>41.436758861332009</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>345</v>
       </c>
@@ -9274,7 +9612,7 @@
         <v>40.820374814027048</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>455</v>
       </c>
@@ -9294,7 +9632,7 @@
         <v>43.500513901022032</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -9314,7 +9652,7 @@
         <v>43.500414915307033</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>451</v>
       </c>
@@ -9334,7 +9672,7 @@
         <v>42.78597972756404</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>449</v>
       </c>
@@ -9354,7 +9692,7 @@
         <v>43.320736792501073</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>447</v>
       </c>
@@ -9374,7 +9712,7 @@
         <v>43.501195968628053</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>445</v>
       </c>
@@ -9394,7 +9732,7 @@
         <v>42.892662048819027</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>443</v>
       </c>
@@ -9414,7 +9752,7 @@
         <v>42.866761409279043</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>441</v>
       </c>
@@ -9434,7 +9772,7 @@
         <v>41.889845987836047</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>439</v>
       </c>
@@ -9462,4 +9800,613 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1229D147-FA67-9545-AA8F-710EC362C3DD}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C10" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C15" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C16" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C17" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C18" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C19" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C20" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C22" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C23" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C24" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C25" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C26" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C27" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C28" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C30" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C31" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C32" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C33" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C35" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C36" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C37" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C38" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C40" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C41" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C42" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C44" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C45" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C46" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C47" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C48" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C49" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C50" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C51" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C52" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C53" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C54" s="5">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>